--- a/data/CS1_2/Market Data/CS1_market_data_2040.xlsx
+++ b/data/CS1_2/Market Data/CS1_market_data_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DEE6D-667A-4B49-BE34-C7CCCA878076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9696BC-C622-4A7E-B552-C543BEBAD595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,10 @@
     <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
-    <sheet name="Cp, Summer" sheetId="6" r:id="rId6"/>
-    <sheet name="Csr, Summer" sheetId="7" r:id="rId7"/>
-    <sheet name="Ctr_up, Summer" sheetId="8" r:id="rId8"/>
-    <sheet name="Ctr_down, Summer" sheetId="9" r:id="rId9"/>
+    <sheet name="Cp, Summer" sheetId="10" r:id="rId6"/>
+    <sheet name="Csr, Summer" sheetId="11" r:id="rId7"/>
+    <sheet name="Ctr_up, Summer" sheetId="12" r:id="rId8"/>
+    <sheet name="Ctr_down, Summer" sheetId="13" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -131,33 +131,31 @@
       <sheetName val="Secondary Reserve, Winter"/>
       <sheetName val="Tertiary Reserve Up, Winter"/>
       <sheetName val="Tertiary Reserve Down, Winter"/>
-      <sheetName val="Flexibility, Winter"/>
       <sheetName val="Energy, Summer"/>
       <sheetName val="Secondary Reserve, Summer"/>
       <sheetName val="Tertiary Reserve Up, Summer"/>
       <sheetName val="Tertiary Reserve Down, Summer"/>
-      <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>5.0000000000000001E-3</v>
+            <v>0.05</v>
           </cell>
         </row>
       </sheetData>
@@ -1088,7 +1086,6 @@
           <cell r="L4">
             <v>44</v>
           </cell>
-          <cell r="M4"/>
           <cell r="N4">
             <v>46</v>
           </cell>
@@ -1647,8 +1644,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
             <v>35.549999999999997</v>
@@ -2017,756 +2013,756 @@
           </cell>
           <cell r="Y6">
             <v>36</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>6.52</v>
+          </cell>
+          <cell r="C2">
+            <v>10.56</v>
+          </cell>
+          <cell r="D2">
+            <v>5.92</v>
+          </cell>
+          <cell r="E2">
+            <v>6.15</v>
+          </cell>
+          <cell r="F2">
+            <v>6.79</v>
+          </cell>
+          <cell r="G2">
+            <v>6.65</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
+          </cell>
+          <cell r="I2">
+            <v>10.19</v>
+          </cell>
+          <cell r="J2">
+            <v>9.76</v>
+          </cell>
+          <cell r="K2">
+            <v>8.0500000000000007</v>
+          </cell>
+          <cell r="L2">
+            <v>8.66</v>
+          </cell>
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>7.8</v>
+          </cell>
+          <cell r="O2">
+            <v>5.82</v>
+          </cell>
+          <cell r="P2">
+            <v>6.56</v>
+          </cell>
+          <cell r="Q2">
+            <v>8.0399999999999991</v>
+          </cell>
+          <cell r="R2">
+            <v>7.63</v>
+          </cell>
+          <cell r="S2">
+            <v>8.42</v>
+          </cell>
+          <cell r="T2">
+            <v>4.66</v>
+          </cell>
+          <cell r="U2">
+            <v>4.32</v>
+          </cell>
+          <cell r="V2">
+            <v>2.81</v>
+          </cell>
+          <cell r="W2">
+            <v>2.81</v>
+          </cell>
+          <cell r="X2">
+            <v>3.33</v>
+          </cell>
+          <cell r="Y2">
+            <v>8.9700000000000006</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>11.27</v>
+          </cell>
+          <cell r="C3">
+            <v>12.24</v>
+          </cell>
+          <cell r="D3">
+            <v>8.3699999999999992</v>
+          </cell>
+          <cell r="E3">
+            <v>8.5399999999999991</v>
+          </cell>
+          <cell r="F3">
+            <v>8.84</v>
+          </cell>
+          <cell r="G3">
+            <v>8.93</v>
+          </cell>
+          <cell r="H3">
+            <v>17.93</v>
+          </cell>
+          <cell r="I3">
+            <v>15.6</v>
+          </cell>
+          <cell r="J3">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="K3">
+            <v>9.6300000000000008</v>
+          </cell>
+          <cell r="L3">
+            <v>7.71</v>
+          </cell>
+          <cell r="M3">
+            <v>7.97</v>
+          </cell>
+          <cell r="N3">
+            <v>9.08</v>
+          </cell>
+          <cell r="O3">
+            <v>7.13</v>
+          </cell>
+          <cell r="P3">
+            <v>7.4</v>
+          </cell>
+          <cell r="Q3">
+            <v>7.84</v>
+          </cell>
+          <cell r="R3">
+            <v>7.6</v>
+          </cell>
+          <cell r="S3">
+            <v>5.7</v>
+          </cell>
+          <cell r="T3">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="U3">
+            <v>4.2300000000000004</v>
+          </cell>
+          <cell r="V3">
+            <v>2.38</v>
+          </cell>
+          <cell r="W3">
+            <v>2.8</v>
+          </cell>
+          <cell r="X3">
+            <v>2.09</v>
+          </cell>
+          <cell r="Y3">
+            <v>12.33</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.88</v>
+          </cell>
+          <cell r="C4">
+            <v>8.98</v>
+          </cell>
+          <cell r="D4">
+            <v>7.64</v>
+          </cell>
+          <cell r="E4">
+            <v>7.72</v>
+          </cell>
+          <cell r="F4">
+            <v>7.64</v>
+          </cell>
+          <cell r="G4">
+            <v>7.72</v>
+          </cell>
+          <cell r="H4">
+            <v>8.23</v>
+          </cell>
+          <cell r="I4">
+            <v>7.19</v>
+          </cell>
+          <cell r="J4">
+            <v>6.72</v>
+          </cell>
+          <cell r="K4">
+            <v>6.56</v>
+          </cell>
+          <cell r="L4">
+            <v>5.75</v>
+          </cell>
+          <cell r="M4">
+            <v>4.9400000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="O4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="P4">
+            <v>6.11</v>
+          </cell>
+          <cell r="Q4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="R4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>4.66</v>
+          </cell>
+          <cell r="T4">
+            <v>5.58</v>
+          </cell>
+          <cell r="U4">
+            <v>5.56</v>
+          </cell>
+          <cell r="V4">
+            <v>5.09</v>
+          </cell>
+          <cell r="W4">
+            <v>4.33</v>
+          </cell>
+          <cell r="X4">
+            <v>4.62</v>
+          </cell>
+          <cell r="Y4">
+            <v>6.95</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>11.09</v>
+          </cell>
+          <cell r="C5">
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="D5">
+            <v>10.62</v>
+          </cell>
+          <cell r="E5">
+            <v>10.62</v>
+          </cell>
+          <cell r="F5">
+            <v>10.62</v>
+          </cell>
+          <cell r="G5">
+            <v>10.62</v>
+          </cell>
+          <cell r="H5">
+            <v>10.42</v>
+          </cell>
+          <cell r="I5">
+            <v>6.72</v>
+          </cell>
+          <cell r="J5">
+            <v>6.96</v>
+          </cell>
+          <cell r="K5">
+            <v>7.46</v>
+          </cell>
+          <cell r="L5">
+            <v>10.48</v>
+          </cell>
+          <cell r="M5">
+            <v>9.4</v>
+          </cell>
+          <cell r="N5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="O5">
+            <v>8.6300000000000008</v>
+          </cell>
+          <cell r="P5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="Q5">
+            <v>10.89</v>
+          </cell>
+          <cell r="R5">
+            <v>9.8699999999999992</v>
+          </cell>
+          <cell r="S5">
+            <v>8.06</v>
+          </cell>
+          <cell r="T5">
+            <v>8.06</v>
+          </cell>
+          <cell r="U5">
+            <v>8.75</v>
+          </cell>
+          <cell r="V5">
+            <v>6.17</v>
+          </cell>
+          <cell r="W5">
+            <v>6.6</v>
+          </cell>
+          <cell r="X5">
+            <v>5.72</v>
+          </cell>
+          <cell r="Y5">
+            <v>10.26</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>7.58</v>
+          </cell>
+          <cell r="C6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="D6">
+            <v>6.33</v>
+          </cell>
+          <cell r="E6">
+            <v>6.8</v>
+          </cell>
+          <cell r="F6">
+            <v>6.8</v>
+          </cell>
+          <cell r="G6">
+            <v>6.25</v>
+          </cell>
+          <cell r="H6">
+            <v>7.77</v>
+          </cell>
+          <cell r="I6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="J6">
+            <v>9.2200000000000006</v>
+          </cell>
+          <cell r="K6">
+            <v>8.6199999999999992</v>
+          </cell>
+          <cell r="L6">
+            <v>7.09</v>
+          </cell>
+          <cell r="M6">
+            <v>6.43</v>
+          </cell>
+          <cell r="N6">
+            <v>5.85</v>
+          </cell>
+          <cell r="O6">
+            <v>6.44</v>
+          </cell>
+          <cell r="P6">
+            <v>6.79</v>
+          </cell>
+          <cell r="Q6">
+            <v>8.14</v>
+          </cell>
+          <cell r="R6">
+            <v>8.51</v>
+          </cell>
+          <cell r="S6">
+            <v>9.17</v>
+          </cell>
+          <cell r="T6">
+            <v>8.7899999999999991</v>
+          </cell>
+          <cell r="U6">
+            <v>7.6</v>
+          </cell>
+          <cell r="V6">
+            <v>6.29</v>
+          </cell>
+          <cell r="W6">
+            <v>6.62</v>
+          </cell>
+          <cell r="X6">
+            <v>6.53</v>
+          </cell>
+          <cell r="Y6">
+            <v>7.99</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>6.52</v>
+            <v>36.4</v>
           </cell>
           <cell r="C2">
-            <v>10.56</v>
+            <v>36.4</v>
           </cell>
           <cell r="D2">
-            <v>5.92</v>
+            <v>35.69</v>
           </cell>
           <cell r="E2">
-            <v>6.15</v>
+            <v>35.69</v>
           </cell>
           <cell r="F2">
-            <v>6.79</v>
+            <v>35.69</v>
           </cell>
           <cell r="G2">
-            <v>6.65</v>
+            <v>35.69</v>
           </cell>
           <cell r="H2">
-            <v>10</v>
+            <v>35.69</v>
           </cell>
           <cell r="I2">
-            <v>10.19</v>
+            <v>47.22</v>
           </cell>
           <cell r="J2">
-            <v>9.76</v>
+            <v>36.4</v>
           </cell>
           <cell r="K2">
-            <v>8.0500000000000007</v>
+            <v>36.4</v>
           </cell>
           <cell r="L2">
-            <v>8.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="M2">
-            <v>10</v>
+            <v>47.22</v>
           </cell>
           <cell r="N2">
-            <v>7.8</v>
+            <v>42</v>
           </cell>
           <cell r="O2">
-            <v>5.82</v>
+            <v>38</v>
           </cell>
           <cell r="P2">
-            <v>6.56</v>
+            <v>38</v>
           </cell>
           <cell r="Q2">
-            <v>8.0399999999999991</v>
+            <v>47.22</v>
           </cell>
           <cell r="R2">
-            <v>7.63</v>
+            <v>47.22</v>
           </cell>
           <cell r="S2">
-            <v>8.42</v>
+            <v>47.22</v>
           </cell>
           <cell r="T2">
-            <v>4.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="U2">
-            <v>4.32</v>
+            <v>47.22</v>
           </cell>
           <cell r="V2">
-            <v>2.81</v>
+            <v>47.22</v>
           </cell>
           <cell r="W2">
-            <v>2.81</v>
+            <v>47.22</v>
           </cell>
           <cell r="X2">
-            <v>3.33</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y2">
-            <v>8.9700000000000006</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>11.27</v>
+            <v>47.22</v>
           </cell>
           <cell r="C3">
-            <v>12.24</v>
+            <v>47.22</v>
           </cell>
           <cell r="D3">
-            <v>8.3699999999999992</v>
+            <v>47.22</v>
           </cell>
           <cell r="E3">
-            <v>8.5399999999999991</v>
+            <v>36</v>
           </cell>
           <cell r="F3">
-            <v>8.84</v>
+            <v>35.69</v>
           </cell>
           <cell r="G3">
-            <v>8.93</v>
+            <v>35.69</v>
           </cell>
           <cell r="H3">
-            <v>17.93</v>
+            <v>35.69</v>
           </cell>
           <cell r="I3">
-            <v>15.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="J3">
-            <v>9.8800000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="K3">
-            <v>9.6300000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="L3">
-            <v>7.71</v>
+            <v>47.22</v>
           </cell>
           <cell r="M3">
-            <v>7.97</v>
+            <v>47.22</v>
           </cell>
           <cell r="N3">
-            <v>9.08</v>
+            <v>47.22</v>
           </cell>
           <cell r="O3">
-            <v>7.13</v>
+            <v>47.22</v>
           </cell>
           <cell r="P3">
-            <v>7.4</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q3">
-            <v>7.84</v>
+            <v>47.22</v>
           </cell>
           <cell r="R3">
-            <v>7.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="S3">
-            <v>5.7</v>
+            <v>47.22</v>
           </cell>
           <cell r="T3">
-            <v>4.8499999999999996</v>
+            <v>47.22</v>
           </cell>
           <cell r="U3">
-            <v>4.2300000000000004</v>
+            <v>47.22</v>
           </cell>
           <cell r="V3">
-            <v>2.38</v>
+            <v>47.22</v>
           </cell>
           <cell r="W3">
-            <v>2.8</v>
+            <v>47.22</v>
           </cell>
           <cell r="X3">
-            <v>2.09</v>
+            <v>36</v>
           </cell>
           <cell r="Y3">
-            <v>12.33</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.88</v>
+            <v>47.22</v>
           </cell>
           <cell r="C4">
-            <v>8.98</v>
+            <v>37.4</v>
           </cell>
           <cell r="D4">
-            <v>7.64</v>
+            <v>69.040000000000006</v>
           </cell>
           <cell r="E4">
-            <v>7.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="F4">
-            <v>7.64</v>
+            <v>35.69</v>
           </cell>
           <cell r="G4">
-            <v>7.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="H4">
-            <v>8.23</v>
+            <v>37.4</v>
           </cell>
           <cell r="I4">
-            <v>7.19</v>
+            <v>37.4</v>
           </cell>
           <cell r="J4">
-            <v>6.72</v>
+            <v>37.4</v>
           </cell>
           <cell r="K4">
-            <v>6.56</v>
+            <v>38</v>
           </cell>
           <cell r="L4">
-            <v>5.75</v>
+            <v>38</v>
           </cell>
           <cell r="M4">
-            <v>4.9400000000000004</v>
+            <v>47.22</v>
           </cell>
           <cell r="N4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="O4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="P4">
-            <v>6.11</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="R4">
-            <v>4.6100000000000003</v>
+            <v>47.22</v>
           </cell>
           <cell r="S4">
-            <v>4.66</v>
+            <v>47.22</v>
           </cell>
           <cell r="T4">
-            <v>5.58</v>
+            <v>47.22</v>
           </cell>
           <cell r="U4">
-            <v>5.56</v>
+            <v>47.22</v>
           </cell>
           <cell r="V4">
-            <v>5.09</v>
+            <v>47.22</v>
           </cell>
           <cell r="W4">
-            <v>4.33</v>
+            <v>95</v>
           </cell>
           <cell r="X4">
-            <v>4.62</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y4">
-            <v>6.95</v>
+            <v>47.22</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>11.09</v>
+            <v>37</v>
           </cell>
           <cell r="C5">
-            <v>18.989999999999998</v>
+            <v>35.69</v>
           </cell>
           <cell r="D5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="E5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="F5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="G5">
-            <v>10.62</v>
+            <v>35.69</v>
           </cell>
           <cell r="H5">
-            <v>10.42</v>
+            <v>47.22</v>
           </cell>
           <cell r="I5">
-            <v>6.72</v>
+            <v>47.22</v>
           </cell>
           <cell r="J5">
-            <v>6.96</v>
+            <v>47.22</v>
           </cell>
           <cell r="K5">
-            <v>7.46</v>
+            <v>47.22</v>
           </cell>
           <cell r="L5">
-            <v>10.48</v>
+            <v>36</v>
           </cell>
           <cell r="M5">
-            <v>9.4</v>
+            <v>38.4</v>
           </cell>
           <cell r="N5">
-            <v>8.4600000000000009</v>
+            <v>47.22</v>
           </cell>
           <cell r="O5">
-            <v>8.6300000000000008</v>
+            <v>47.22</v>
           </cell>
           <cell r="P5">
-            <v>8.4600000000000009</v>
+            <v>47.22</v>
           </cell>
           <cell r="Q5">
-            <v>10.89</v>
+            <v>47.22</v>
           </cell>
           <cell r="R5">
-            <v>9.8699999999999992</v>
+            <v>47.22</v>
           </cell>
           <cell r="S5">
-            <v>8.06</v>
+            <v>47.22</v>
           </cell>
           <cell r="T5">
-            <v>8.06</v>
+            <v>47.22</v>
           </cell>
           <cell r="U5">
-            <v>8.75</v>
+            <v>47.22</v>
           </cell>
           <cell r="V5">
-            <v>6.17</v>
+            <v>47.12</v>
           </cell>
           <cell r="W5">
-            <v>6.6</v>
+            <v>47.22</v>
           </cell>
           <cell r="X5">
-            <v>5.72</v>
+            <v>47.22</v>
           </cell>
           <cell r="Y5">
-            <v>10.26</v>
+            <v>47.043333333333329</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>7.58</v>
+            <v>46.66</v>
           </cell>
           <cell r="C6">
-            <v>9.4499999999999993</v>
+            <v>46.69</v>
           </cell>
           <cell r="D6">
-            <v>6.33</v>
+            <v>37.4</v>
           </cell>
           <cell r="E6">
-            <v>6.8</v>
+            <v>37.4</v>
           </cell>
           <cell r="F6">
-            <v>6.8</v>
+            <v>37.4</v>
           </cell>
           <cell r="G6">
-            <v>6.25</v>
+            <v>37.4</v>
           </cell>
           <cell r="H6">
-            <v>7.77</v>
+            <v>47.22</v>
           </cell>
           <cell r="I6">
-            <v>9.4499999999999993</v>
+            <v>64.64</v>
           </cell>
           <cell r="J6">
-            <v>9.2200000000000006</v>
+            <v>37.4</v>
           </cell>
           <cell r="K6">
-            <v>8.6199999999999992</v>
+            <v>37.4</v>
           </cell>
           <cell r="L6">
-            <v>7.09</v>
+            <v>36</v>
           </cell>
           <cell r="M6">
-            <v>6.43</v>
+            <v>37.4</v>
           </cell>
           <cell r="N6">
-            <v>5.85</v>
+            <v>46.69</v>
           </cell>
           <cell r="O6">
-            <v>6.44</v>
+            <v>46.69</v>
           </cell>
           <cell r="P6">
-            <v>6.79</v>
+            <v>46.69</v>
           </cell>
           <cell r="Q6">
-            <v>8.14</v>
+            <v>46.69</v>
           </cell>
           <cell r="R6">
-            <v>8.51</v>
+            <v>46.69</v>
           </cell>
           <cell r="S6">
-            <v>9.17</v>
+            <v>46.69</v>
           </cell>
           <cell r="T6">
-            <v>8.7899999999999991</v>
+            <v>46.69</v>
           </cell>
           <cell r="U6">
-            <v>7.6</v>
+            <v>46.69</v>
           </cell>
           <cell r="V6">
-            <v>6.29</v>
+            <v>46.69</v>
           </cell>
           <cell r="W6">
-            <v>6.62</v>
+            <v>46.58</v>
           </cell>
           <cell r="X6">
-            <v>6.53</v>
+            <v>46.56</v>
           </cell>
           <cell r="Y6">
-            <v>7.99</v>
+            <v>46.69</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>36.4</v>
-          </cell>
-          <cell r="C2">
-            <v>36.4</v>
-          </cell>
-          <cell r="D2">
-            <v>35.69</v>
-          </cell>
-          <cell r="E2">
-            <v>35.69</v>
-          </cell>
-          <cell r="F2">
-            <v>35.69</v>
-          </cell>
-          <cell r="G2">
-            <v>35.69</v>
-          </cell>
-          <cell r="H2">
-            <v>35.69</v>
-          </cell>
-          <cell r="I2">
-            <v>47.22</v>
-          </cell>
-          <cell r="J2">
-            <v>36.4</v>
-          </cell>
-          <cell r="K2">
-            <v>36.4</v>
-          </cell>
-          <cell r="L2">
-            <v>47.22</v>
-          </cell>
-          <cell r="M2">
-            <v>47.22</v>
-          </cell>
-          <cell r="N2">
-            <v>42</v>
-          </cell>
-          <cell r="O2">
-            <v>38</v>
-          </cell>
-          <cell r="P2">
-            <v>38</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.22</v>
-          </cell>
-          <cell r="R2">
-            <v>47.22</v>
-          </cell>
-          <cell r="S2">
-            <v>47.22</v>
-          </cell>
-          <cell r="T2">
-            <v>47.22</v>
-          </cell>
-          <cell r="U2">
-            <v>47.22</v>
-          </cell>
-          <cell r="V2">
-            <v>47.22</v>
-          </cell>
-          <cell r="W2">
-            <v>47.22</v>
-          </cell>
-          <cell r="X2">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.22</v>
-          </cell>
-          <cell r="C3">
-            <v>47.22</v>
-          </cell>
-          <cell r="D3">
-            <v>47.22</v>
-          </cell>
-          <cell r="E3">
-            <v>36</v>
-          </cell>
-          <cell r="F3">
-            <v>35.69</v>
-          </cell>
-          <cell r="G3">
-            <v>35.69</v>
-          </cell>
-          <cell r="H3">
-            <v>35.69</v>
-          </cell>
-          <cell r="I3">
-            <v>47.22</v>
-          </cell>
-          <cell r="J3">
-            <v>47.22</v>
-          </cell>
-          <cell r="K3">
-            <v>47.22</v>
-          </cell>
-          <cell r="L3">
-            <v>47.22</v>
-          </cell>
-          <cell r="M3">
-            <v>47.22</v>
-          </cell>
-          <cell r="N3">
-            <v>47.22</v>
-          </cell>
-          <cell r="O3">
-            <v>47.22</v>
-          </cell>
-          <cell r="P3">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q3">
-            <v>47.22</v>
-          </cell>
-          <cell r="R3">
-            <v>47.22</v>
-          </cell>
-          <cell r="S3">
-            <v>47.22</v>
-          </cell>
-          <cell r="T3">
-            <v>47.22</v>
-          </cell>
-          <cell r="U3">
-            <v>47.22</v>
-          </cell>
-          <cell r="V3">
-            <v>47.22</v>
-          </cell>
-          <cell r="W3">
-            <v>47.22</v>
-          </cell>
-          <cell r="X3">
-            <v>36</v>
-          </cell>
-          <cell r="Y3">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>47.22</v>
-          </cell>
-          <cell r="C4">
-            <v>37.4</v>
-          </cell>
-          <cell r="D4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="E4">
-            <v>37.4</v>
-          </cell>
-          <cell r="F4">
-            <v>35.69</v>
-          </cell>
-          <cell r="G4">
-            <v>37.4</v>
-          </cell>
-          <cell r="H4">
-            <v>37.4</v>
-          </cell>
-          <cell r="I4">
-            <v>37.4</v>
-          </cell>
-          <cell r="J4">
-            <v>37.4</v>
-          </cell>
-          <cell r="K4">
-            <v>38</v>
-          </cell>
-          <cell r="L4">
-            <v>38</v>
-          </cell>
-          <cell r="M4">
-            <v>47.22</v>
-          </cell>
-          <cell r="N4">
-            <v>47.22</v>
-          </cell>
-          <cell r="O4">
-            <v>47.22</v>
-          </cell>
-          <cell r="P4">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q4">
-            <v>47.22</v>
-          </cell>
-          <cell r="R4">
-            <v>47.22</v>
-          </cell>
-          <cell r="S4">
-            <v>47.22</v>
-          </cell>
-          <cell r="T4">
-            <v>47.22</v>
-          </cell>
-          <cell r="U4">
-            <v>47.22</v>
-          </cell>
-          <cell r="V4">
-            <v>47.22</v>
-          </cell>
-          <cell r="W4">
-            <v>95</v>
-          </cell>
-          <cell r="X4">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y4">
-            <v>47.22</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>37</v>
-          </cell>
-          <cell r="C5">
-            <v>35.69</v>
-          </cell>
-          <cell r="D5">
-            <v>35.69</v>
-          </cell>
-          <cell r="E5">
-            <v>35.69</v>
-          </cell>
-          <cell r="F5">
-            <v>35.69</v>
-          </cell>
-          <cell r="G5">
-            <v>35.69</v>
-          </cell>
-          <cell r="H5">
-            <v>47.22</v>
-          </cell>
-          <cell r="I5">
-            <v>47.22</v>
-          </cell>
-          <cell r="J5">
-            <v>47.22</v>
-          </cell>
-          <cell r="K5">
-            <v>47.22</v>
-          </cell>
-          <cell r="L5">
-            <v>36</v>
-          </cell>
-          <cell r="M5">
-            <v>38.4</v>
-          </cell>
-          <cell r="N5">
-            <v>47.22</v>
-          </cell>
-          <cell r="O5">
-            <v>47.22</v>
-          </cell>
-          <cell r="P5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Q5">
-            <v>47.22</v>
-          </cell>
-          <cell r="R5">
-            <v>47.22</v>
-          </cell>
-          <cell r="S5">
-            <v>47.22</v>
-          </cell>
-          <cell r="T5">
-            <v>47.22</v>
-          </cell>
-          <cell r="U5">
-            <v>47.22</v>
-          </cell>
-          <cell r="V5">
-            <v>47.12</v>
-          </cell>
-          <cell r="W5">
-            <v>47.22</v>
-          </cell>
-          <cell r="X5">
-            <v>47.22</v>
-          </cell>
-          <cell r="Y5">
-            <v>47.043333333333329</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>46.66</v>
-          </cell>
-          <cell r="C6">
-            <v>46.69</v>
-          </cell>
-          <cell r="D6">
-            <v>37.4</v>
-          </cell>
-          <cell r="E6">
-            <v>37.4</v>
-          </cell>
-          <cell r="F6">
-            <v>37.4</v>
-          </cell>
-          <cell r="G6">
-            <v>37.4</v>
-          </cell>
-          <cell r="H6">
-            <v>47.22</v>
-          </cell>
-          <cell r="I6">
-            <v>64.64</v>
-          </cell>
-          <cell r="J6">
-            <v>37.4</v>
-          </cell>
-          <cell r="K6">
-            <v>37.4</v>
-          </cell>
-          <cell r="L6">
-            <v>36</v>
-          </cell>
-          <cell r="M6">
-            <v>37.4</v>
-          </cell>
-          <cell r="N6">
-            <v>46.69</v>
-          </cell>
-          <cell r="O6">
-            <v>46.69</v>
-          </cell>
-          <cell r="P6">
-            <v>46.69</v>
-          </cell>
-          <cell r="Q6">
-            <v>46.69</v>
-          </cell>
-          <cell r="R6">
-            <v>46.69</v>
-          </cell>
-          <cell r="S6">
-            <v>46.69</v>
-          </cell>
-          <cell r="T6">
-            <v>46.69</v>
-          </cell>
-          <cell r="U6">
-            <v>46.69</v>
-          </cell>
-          <cell r="V6">
-            <v>46.69</v>
-          </cell>
-          <cell r="W6">
-            <v>46.58</v>
-          </cell>
-          <cell r="X6">
-            <v>46.56</v>
-          </cell>
-          <cell r="Y6">
-            <v>46.69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
             <v>27.98</v>
           </cell>
           <cell r="C2">
@@ -3136,7 +3132,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3408,7 +3403,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,99 +3542,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.67</v>
+        <v>81.376640616779397</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29</v>
+        <v>76.945633449188207</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>20.010000000000002</v>
+        <v>53.092487079939865</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>17.5</v>
+        <v>46.432709840027364</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>16.670000000000002</v>
+        <v>44.230472744757499</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25</v>
+        <v>66.332442628610522</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>81.005178938059174</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.53</v>
+        <v>102.23156057921454</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.99</v>
+        <v>114.06526834415865</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.52</v>
+        <v>115.47151612788521</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.5</v>
+        <v>118.07174787892673</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.02</v>
+        <v>116.79816498045741</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.85</v>
+        <v>116.34710437058285</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.01</v>
+        <v>114.11833429826153</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.21</v>
+        <v>106.68910072385717</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.25</v>
+        <v>109.44853033720736</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.5</v>
+        <v>112.76515246863789</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45</v>
+        <v>119.39839673149893</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.43</v>
+        <v>128.49920786014431</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.8</v>
+        <v>140.09411883162542</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.49</v>
+        <v>139.27159654303065</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>48.1</v>
+        <v>127.62361961744665</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.75</v>
+        <v>116.08177460006841</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.5</v>
+        <v>102.15196164806021</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3648,99 +3643,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.86</v>
+        <v>84.534064885901245</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>81.005178938059174</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.57</v>
+        <v>78.458013141120531</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.53</v>
+        <v>78.351881232914749</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.77</v>
+        <v>78.988672682149414</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.47</v>
+        <v>80.845981075750501</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.37</v>
+        <v>83.233949010380485</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.01</v>
+        <v>106.15844118282827</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.19</v>
+        <v>119.90252329547637</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.47</v>
+        <v>123.29874435806123</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.29</v>
+        <v>122.82115077113524</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.49</v>
+        <v>118.04521490187528</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.01</v>
+        <v>114.11833429826153</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.25</v>
+        <v>109.44853033720736</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.97</v>
+        <v>100.74571386433365</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.01</v>
+        <v>95.545250362250584</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.01</v>
+        <v>100.85184577253943</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.51</v>
+        <v>110.1383877405449</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.25</v>
+        <v>120.06172115778504</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.55</v>
+        <v>123.51100817447278</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.75</v>
+        <v>124.04166771550167</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45.09</v>
+        <v>119.63719352496194</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.15</v>
+        <v>106.52990286154849</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.17</v>
+        <v>82.703289469351603</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3749,99 +3744,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.270000000000003</v>
+        <v>88.275214650154894</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.18</v>
+        <v>82.729822446403048</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.8</v>
+        <v>81.721569318448161</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.9</v>
+        <v>79.333601383818177</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.72</v>
+        <v>78.856007796892186</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.1</v>
+        <v>82.517558629991498</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.700000000000003</v>
+        <v>102.68262118908909</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.1</v>
+        <v>111.70383338658013</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.89</v>
+        <v>113.79993857364421</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.1</v>
+        <v>117.01042879686896</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.51</v>
+        <v>115.44498315083375</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.1</v>
+        <v>111.70383338658013</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.36</v>
+        <v>107.08709537962882</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.08</v>
+        <v>106.34417202218839</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.81</v>
+        <v>97.667888526366141</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.49</v>
+        <v>86.205642440142242</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.869999999999997</v>
+        <v>87.213895568097101</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.840000000000003</v>
+        <v>108.36067827809816</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.15</v>
+        <v>114.48979597698175</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.2</v>
+        <v>114.622460862239</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.98</v>
+        <v>116.69203307225162</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.15</v>
+        <v>114.48979597698175</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.01</v>
+        <v>106.15844118282827</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.68</v>
+        <v>86.709769004119678</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3850,99 +3845,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Winter'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.67</v>
+        <v>134.44259471966782</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Winter'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.19</v>
+        <v>130.51571411605406</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Winter'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.22</v>
+        <v>122.63541993177513</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Winter'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
+        <v>111.43850361606567</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Winter'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.01</v>
+        <v>103.50514347768386</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Winter'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42</v>
+        <v>111.43850361606567</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Winter'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.75</v>
+        <v>126.6949654206461</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Winter'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.69</v>
+        <v>134.49566067377069</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Winter'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.93</v>
+        <v>140.4390475332942</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Winter'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>52.6</v>
+        <v>139.56345929059654</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Winter'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.67</v>
+        <v>134.44259471966782</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Winter'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.73</v>
+        <v>131.94849487683203</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Winter'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.44</v>
+        <v>125.87244313205132</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Winter'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.01</v>
+        <v>124.73152511883922</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Winter'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>45</v>
+        <v>119.39839673149893</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Winter'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.97</v>
+        <v>114.01220239005576</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Winter'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.68</v>
+        <v>115.89604376070831</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Winter'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.81</v>
+        <v>124.20086557781035</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Winter'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.51</v>
+        <v>131.36476938170028</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Winter'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50</v>
+        <v>132.66488525722104</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Winter'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50</v>
+        <v>132.66488525722104</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Winter'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.11</v>
+        <v>124.99685488935367</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Winter'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.6</v>
+        <v>102.41729141857465</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Winter'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.1</v>
+        <v>90.477451745424759</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3951,99 +3946,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Winter'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.87</v>
+        <v>81.90730015780828</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Winter'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.48</v>
+        <v>78.219216347657522</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Winter'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.86</v>
+        <v>71.267576360179149</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Winter'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.71</v>
+        <v>68.216283999263069</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Winter'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.01</v>
+        <v>69.012273310806393</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Winter'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.97</v>
+        <v>74.212736812889446</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Winter'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.09</v>
+        <v>82.491025652940039</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Winter'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>40.25</v>
+        <v>106.79523263206293</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Winter'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.8</v>
+        <v>116.21443948532563</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Winter'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.19</v>
+        <v>114.59592788518754</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Winter'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.68</v>
+        <v>115.89604376070831</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Winter'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>42.72</v>
+        <v>113.34887796376965</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Winter'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.37</v>
+        <v>109.76692606182469</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Winter'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.979999999999997</v>
+        <v>106.07884225167393</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Winter'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.020000000000003</v>
+        <v>103.5316764547353</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Winter'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.11</v>
+        <v>103.7704732481983</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Winter'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>41.37</v>
+        <v>109.76692606182469</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Winter'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>43.98</v>
+        <v>116.69203307225162</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Winter'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>47.11</v>
+        <v>124.99685488935367</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Winter'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>49.73</v>
+        <v>131.94849487683203</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Winter'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>51.75</v>
+        <v>137.30815624122377</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Winter'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>50.3</v>
+        <v>133.46087456876435</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Winter'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>46.16</v>
+        <v>122.47622206946646</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Winter'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>44.01</v>
+        <v>116.77163200340595</v>
       </c>
     </row>
   </sheetData>
@@ -4057,7 +4052,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,99 +4140,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Winter'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.230638018288978</v>
+        <v>48.581880981194345</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Winter'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.760987895338609</v>
+        <v>49.855463879663667</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Winter'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>24.72756301743896</v>
+        <v>59.380802641132135</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Winter'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>26.904207304496815</v>
+        <v>64.607799120266648</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Winter'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>27.633438385440055</v>
+        <v>66.358975605661968</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Winter'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.628261420784181</v>
+        <v>54.339537001357741</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Winter'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>24.451339123142279</v>
+        <v>58.717478214846032</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Winter'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.656509334027952</v>
+        <v>32.794759635585038</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Winter'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.1763662764738063</v>
+        <v>14.831934171757313</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Winter'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4306312645187766</v>
+        <v>10.639723797629127</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Winter'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.8560855643816794</v>
+        <v>9.2600089909540291</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Winter'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.6791632667397787</v>
+        <v>13.637950204442323</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Winter'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Winter'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.7400020261310614</v>
+        <v>11.382647155069566</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Winter'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.8615405396216014</v>
+        <v>11.674509902635453</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.9609811415684071</v>
+        <v>11.91330669609845</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Winter'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Winter'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Winter'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.1267154781464148</v>
+        <v>12.311301351870112</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Winter'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.9553871610364606</v>
+        <v>14.301274630728427</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Winter'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Winter'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Winter'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.6183245073484978</v>
+        <v>15.893253253815082</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.551752762133248</v>
+        <v>25.338993084129221</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4246,99 +4241,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Winter'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>26.970501039128017</v>
+        <v>64.766996982575307</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Winter'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.319029664463919</v>
+        <v>48.794144797605902</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Winter'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.263923890896606</v>
+        <v>43.859011066037283</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Winter'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.258329910364658</v>
+        <v>46.246979000667253</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Winter'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.330217625527808</v>
+        <v>44.018208928345942</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Winter'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>27.213578066109097</v>
+        <v>65.35072247770708</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Winter'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>28.020151837455408</v>
+        <v>67.287629802462519</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Winter'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.369236483959401</v>
+        <v>32.10490223224749</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Winter'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4137103176309171</v>
+        <v>22.606096447830463</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Winter'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Winter'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5906326152728179</v>
+        <v>18.228155234342172</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Winter'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3036377757883155</v>
+        <v>7.9333601383818193</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Winter'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.5686737090211063</v>
+        <v>13.372620433927882</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Winter'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1099335365505798</v>
+        <v>19.475205155760047</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Winter'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.5130119142857</v>
+        <v>27.647362087604865</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.982523031944048</v>
+        <v>31.176248035446946</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Winter'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.468816091198232</v>
+        <v>27.54123017939909</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Winter'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.7400020261310614</v>
+        <v>11.382647155069566</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Winter'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2370660305730645</v>
+        <v>17.379099968695957</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Winter'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.5741286842610291</v>
+        <v>15.787121345609304</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Winter'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Winter'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Winter'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6679753056758893</v>
+        <v>18.413886073702283</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.976234024951985</v>
+        <v>57.576560201633932</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4347,99 +4342,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Winter'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>25.766164859994486</v>
+        <v>61.874902483967894</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Winter'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.650359332327913</v>
+        <v>54.392602955460625</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Winter'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>16.70602112706332</v>
+        <v>40.117861301783641</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Winter'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.490496986865896</v>
+        <v>42.001702672436181</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Winter'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.645182367672039</v>
+        <v>42.373164351156404</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Winter'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.374413448615275</v>
+        <v>44.124340836551717</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Winter'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>15.346999567123646</v>
+        <v>36.854305124456005</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Winter'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.275806878420612</v>
+        <v>15.07073096522031</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Winter'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1876932428297202</v>
+        <v>5.2535294561859534</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Winter'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.0938466214148601</v>
+        <v>2.6267647280929767</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Winter'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Winter'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.8616795449136241</v>
+        <v>6.8720410563240497</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Winter'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.7344080455991158</v>
+        <v>13.770615089699545</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Winter'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.2151071243213538</v>
+        <v>12.523565168281666</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Winter'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.8448976033177882</v>
+        <v>14.035944860213986</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3255966820400271</v>
+        <v>12.78889493879611</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Winter'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3255966820400271</v>
+        <v>12.78889493879611</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Winter'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3588825546476517</v>
+        <v>8.0660250236390389</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Winter'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.0658767187551339</v>
+        <v>14.566604401242872</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Winter'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.6239184878804425</v>
+        <v>13.505285319185102</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Winter'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3036377757883155</v>
+        <v>7.9333601383818193</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Winter'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.8560855643816794</v>
+        <v>9.2600089909540291</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Winter'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9386052194406247</v>
+        <v>21.465178434618366</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>16.418748276994769</v>
+        <v>39.428003898446093</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4448,99 +4443,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Winter'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3036377757883155</v>
+        <v>7.9333601383818193</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Winter'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3036377757883155</v>
+        <v>7.9333601383818193</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Winter'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.8560855643816794</v>
+        <v>9.2600089909540291</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Winter'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.8450366086098118</v>
+        <v>9.2334760139025853</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Winter'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3036377757883155</v>
+        <v>7.9333601383818193</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Winter'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.0602827382231883</v>
+        <v>16.95457233587285</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Winter'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.0215418903756408</v>
+        <v>19.262941339348494</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Winter'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0714706992870786</v>
+        <v>12.178636466612891</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Winter'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.7344080455991158</v>
+        <v>13.770615089699545</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Winter'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.3148257368522056</v>
+        <v>3.1574242691218606</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Winter'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.9611201468604298</v>
+        <v>7.1108378497870479</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Winter'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3036377757883155</v>
+        <v>7.9333601383818193</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Winter'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.5246168912256608</v>
+        <v>8.4640196794107023</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Winter'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.0660157240471575</v>
+        <v>9.7641355549314692</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Winter'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4195823087469099</v>
+        <v>10.613190820577683</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4306312645187766</v>
+        <v>10.639723797629127</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Winter'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4195823087469099</v>
+        <v>10.613190820577683</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Winter'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.5191619159857384</v>
+        <v>6.0495187677292792</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Winter'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.0938466214148601</v>
+        <v>2.6267647280929767</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Winter'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.530210871757606</v>
+        <v>6.0760517447807239</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Winter'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.0938466214148601</v>
+        <v>2.6267647280929767</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Winter'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Winter'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.800562774938296</v>
+        <v>18.732281798319612</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4549,99 +4544,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Winter'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>18.783224812174367</v>
+        <v>45.106060987455152</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Winter'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>24.031478803811321</v>
+        <v>57.709225086891152</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Winter'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>22.418331261118698</v>
+        <v>53.835410437380297</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Winter'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.567422661392897</v>
+        <v>56.59484005073049</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Winter'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>23.258051899780614</v>
+        <v>55.851916693290065</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Winter'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.551057735673133</v>
+        <v>49.35133731568623</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Winter'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>24.164066273073733</v>
+        <v>58.027620811508484</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Winter'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.6955281924595447</v>
+        <v>20.881452939486593</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Winter'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.4085333529750432</v>
+        <v>10.58665784352624</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Winter'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Winter'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.5910496311488875</v>
+        <v>3.8207486954079659</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Winter'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Winter'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Winter'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Winter'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.2981828005483931</v>
+        <v>5.5188592267003953</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Winter'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Winter'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.1987421986015878</v>
+        <v>5.2800624332373971</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Winter'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.7843368545105531</v>
+        <v>6.6863102169639408</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Winter'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3092317563202602</v>
+        <v>5.5453922037518391</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Winter'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.5910496311488875</v>
+        <v>3.8207486954079659</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Winter'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>1.9777630831642423</v>
+        <v>4.7494028922085132</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Winter'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.7732878987386855</v>
+        <v>6.6597772399124961</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Winter'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.3146867315601822</v>
+        <v>7.9598931154332622</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -4768,99 +4763,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.724782911598496</v>
+        <v>155.43017956736017</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.724782911598496</v>
+        <v>155.43017956736017</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.691636044282887</v>
+        <v>155.35058063620585</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.691636044282887</v>
+        <v>155.35058063620585</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>56.962891481861732</v>
+        <v>136.7907631887206</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>56.68114310967912</v>
+        <v>136.11417227390879</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>58.636808281299629</v>
+        <v>140.81050921201441</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>58.636808281299629</v>
+        <v>140.81050921201441</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>58.636808281299629</v>
+        <v>140.81050921201441</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>60.080538502156948</v>
+        <v>144.27748488006978</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.057363627090702</v>
+        <v>117.80641810841229</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4869,99 +4864,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.06785656169447</v>
+        <v>137.04282647070934</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.056807605922607</v>
+        <v>137.01629349365788</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.056807605922607</v>
+        <v>137.01629349365788</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>57.056807605922607</v>
+        <v>137.01629349365788</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.057363627090702</v>
+        <v>117.80641810841229</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4970,47 +4965,47 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.95246804990397</v>
+        <v>115.15312040326786</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
@@ -5018,51 +5013,51 @@
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.847572472717246</v>
+        <v>112.49982269812344</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.724782911598496</v>
+        <v>155.43017956736017</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.724782911598496</v>
+        <v>155.43017956736017</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5071,99 +5066,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>47.95246804990397</v>
+        <v>115.15312040326786</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>49.057363627090702</v>
+        <v>117.80641810841229</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.930092127776192</v>
+        <v>124.70499214178778</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.930092127776192</v>
+        <v>124.70499214178778</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.930092127776192</v>
+        <v>124.70499214178778</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.006322775843074</v>
+        <v>163.31047375163911</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.028420687386813</v>
+        <v>163.363539705742</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.028420687386813</v>
+        <v>163.363539705742</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>68.028420687386813</v>
+        <v>163.363539705742</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>64.691636044282887</v>
+        <v>155.35058063620585</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.896945260460591</v>
+        <v>124.62539321063345</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5172,99 +5167,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.582258528900404</v>
+        <v>116.66550009520019</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>48.615405396216012</v>
+        <v>116.74509902635452</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>69.133316264573537</v>
+        <v>166.01683741088641</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>50.825196550589467</v>
+        <v>122.05169443664336</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>58.636808281299629</v>
+        <v>140.81050921201441</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>58.636808281299629</v>
+        <v>140.81050921201441</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>58.636808281299629</v>
+        <v>140.81050921201441</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>60.080538502156948</v>
+        <v>144.27748488006978</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Winter'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.896945260460591</v>
+        <v>124.62539321063345</v>
       </c>
     </row>
   </sheetData>
@@ -5365,99 +5360,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>6.2868558341924796</v>
+        <v>15.097263942271756</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.346443545955552</v>
+        <v>56.064180509701607</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.990235860707358</v>
+        <v>146.46203332397204</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>46.853096950603181</v>
+        <v>112.51308918664917</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.346443545955552</v>
+        <v>56.064180509701607</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.346443545955552</v>
+        <v>56.064180509701607</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5466,99 +5461,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>18.355077776014511</v>
+        <v>44.077908126711691</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.251762892788555</v>
+        <v>82.252228859477043</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.523643854181501</v>
+        <v>42.081301603590525</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.523643854181501</v>
+        <v>42.081301603590525</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.523643854181501</v>
+        <v>42.081301603590525</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.523643854181501</v>
+        <v>42.081301603590525</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>34.251762892788555</v>
+        <v>82.252228859477043</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>26.528542808253327</v>
+        <v>63.70567790051755</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>38.516659820729316</v>
+        <v>92.493958001334505</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.559465590896558</v>
+        <v>140.6247783726543</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.068308656384211</v>
+        <v>57.797668343729299</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.068308656384211</v>
+        <v>57.797668343729299</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.559465590896558</v>
+        <v>140.6247783726543</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.559465590896558</v>
+        <v>140.6247783726543</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.685225898896313</v>
+        <v>90.497351478213346</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>35.35665846997528</v>
+        <v>84.905526564621468</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.727702022730984</v>
+        <v>54.578333794820736</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5567,99 +5562,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>16.573433657800912</v>
+        <v>39.799465577166316</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.307702698108006</v>
+        <v>58.372549513177262</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.346443545955552</v>
+        <v>56.064180509701607</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.390152850520941</v>
+        <v>72.978953379997307</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5668,99 +5663,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.644487341211921</v>
+        <v>66.385508582713413</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.749382918398648</v>
+        <v>69.038806287857824</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.644487341211921</v>
+        <v>66.385508582713413</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.749382918398648</v>
+        <v>69.038806287857824</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.644487341211921</v>
+        <v>66.385508582713413</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.990235860707358</v>
+        <v>146.46203332397204</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.596191516991091</v>
+        <v>80.677938887758017</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>38.207289059117038</v>
+        <v>91.751034643894073</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.068308656384211</v>
+        <v>57.797668343729299</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.068308656384211</v>
+        <v>57.797668343729299</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>29.272366824933702</v>
+        <v>70.294700534959532</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.599874502248383</v>
+        <v>80.686783213441842</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.318751653879875</v>
+        <v>58.399082490228707</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5769,99 +5764,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>19.744483964326822</v>
+        <v>47.414429990930806</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.937076161228369</v>
+        <v>74.292335744043783</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.937076161228369</v>
+        <v>74.292335744043783</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.727006996270866</v>
+        <v>78.590678026377745</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>60.990235860707358</v>
+        <v>146.46203332397204</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.727006996270866</v>
+        <v>78.590678026377745</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.461554047162004</v>
+        <v>87.558824269765893</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>36.461554047162004</v>
+        <v>87.558824269765893</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.715958040498997</v>
+        <v>78.564145049326299</v>
       </c>
     </row>
   </sheetData>
@@ -5870,11 +5865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51365E97-6E69-401A-9DFD-893A2C3FF085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB224AF7-AF06-40B8-9986-34C502BD82F3}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,99 +5957,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.549999999999997</v>
+        <v>94.324733417884161</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>73.814742157117792</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.69</v>
+        <v>70.816515750304603</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
+        <v>68.985740333754947</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26</v>
+        <v>68.985740333754947</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.22</v>
+        <v>69.569465828886706</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.18</v>
+        <v>72.116631625825363</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.7</v>
+        <v>73.496346432500459</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.63</v>
+        <v>83.923806413718026</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>90.397852814270422</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.26</v>
+        <v>82.942086262814598</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.77</v>
+        <v>73.682077271860564</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33</v>
+        <v>87.558824269765893</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.99</v>
+        <v>92.838886703003297</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.99</v>
+        <v>87.532291292714447</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.53</v>
+        <v>88.965072053492435</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>90.397852814270422</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.57</v>
+        <v>86.417906256553792</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.77</v>
+        <v>73.682077271860564</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.36</v>
+        <v>77.90082062304019</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.07</v>
+        <v>90.397852814270422</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.11</v>
+        <v>98.46387783790945</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.92</v>
+        <v>97.959751273932028</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.14</v>
+        <v>82.623690538197266</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6063,99 +6058,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.47</v>
+        <v>91.459171896328186</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.79</v>
+        <v>79.04173863625229</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.16</v>
+        <v>74.716863376866897</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.74</v>
+        <v>73.602478340706227</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>71.639038038899358</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.77</v>
+        <v>71.028779566716139</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>71.639038038899358</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.85</v>
+        <v>73.894341088272128</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.26</v>
+        <v>88.248681673103434</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.4</v>
+        <v>96.580036467256917</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.15</v>
+        <v>95.916712040970808</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.520000000000003</v>
+        <v>96.898432191874264</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.979999999999997</v>
+        <v>98.118949136240673</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.5</v>
+        <v>99.498663942915783</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.130000000000003</v>
+        <v>98.516943792012356</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.57</v>
+        <v>97.031097077131477</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.200000000000003</v>
+        <v>96.049376926228049</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.299999999999997</v>
+        <v>101.62130210703131</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.549999999999997</v>
+        <v>99.631328828172997</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>98.172015090343578</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.42</v>
+        <v>93.979804716215398</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.200000000000003</v>
+        <v>96.049376926228049</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.01</v>
+        <v>92.891952657106174</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.97</v>
+        <v>84.825927633467131</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6164,99 +6159,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.19</v>
+        <v>96.02284394917659</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.5</v>
+        <v>86.232175417193673</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>73.814742157117792</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.5</v>
+        <v>72.965686891471577</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.04</v>
+        <v>71.74516994710514</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.82</v>
+        <v>73.814742157117792</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>29.24</v>
+        <v>77.582424898422857</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.03</v>
+        <v>95.59831631635349</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.22</v>
+        <v>96.102442880330926</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>98.172015090343578</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.799999999999997</v>
+        <v>97.641355549314682</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.799999999999997</v>
+        <v>97.641355549314682</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.65</v>
+        <v>99.896658598687438</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.93</v>
+        <v>105.94617736641672</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.799999999999997</v>
+        <v>102.94795095960352</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.65</v>
+        <v>99.896658598687438</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.51</v>
+        <v>99.525196919967215</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.049999999999997</v>
+        <v>98.304679975600791</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.56</v>
+        <v>97.004564100080032</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.32</v>
+        <v>96.367772650845367</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.5</v>
+        <v>96.845366237771358</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.049999999999997</v>
+        <v>98.304679975600791</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.72</v>
+        <v>97.429091732903132</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.72</v>
+        <v>92.122496322614296</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6265,99 +6260,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.65</v>
+        <v>91.936765483254177</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.5</v>
+        <v>72.965686891471577</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.7</v>
+        <v>68.18975102221161</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.1</v>
+        <v>66.597772399124963</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>25.1</v>
+        <v>66.597772399124963</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.51</v>
+        <v>70.338922163378598</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.64</v>
+        <v>91.910232506202746</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39.270000000000003</v>
+        <v>104.19500088102141</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.119999999999997</v>
+        <v>101.14370852010532</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.68</v>
+        <v>99.976257529841774</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.950000000000003</v>
+        <v>92.732754794797515</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.659999999999997</v>
+        <v>89.310000755161198</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.28</v>
+        <v>90.95504533235075</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35</v>
+        <v>92.865419680054728</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.65</v>
+        <v>91.936765483254177</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.840000000000003</v>
+        <v>87.134296636942793</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34</v>
+        <v>90.212121974910303</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37.409999999999997</v>
+        <v>99.259867149452774</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.18</v>
+        <v>95.996310972125144</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.1</v>
+        <v>95.784047155713594</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.99</v>
+        <v>103.45207752358097</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>39</v>
+        <v>103.47861050063241</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>38.99</v>
+        <v>103.45207752358097</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.64</v>
+        <v>91.910232506202746</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6366,99 +6361,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.299999999999997</v>
+        <v>93.661408991598051</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30</v>
+        <v>79.598931154332632</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27</v>
+        <v>71.639038038899358</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.5</v>
+        <v>70.312389186327152</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>26.5</v>
+        <v>70.312389186327152</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>27.2</v>
+        <v>72.16969757992824</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.56</v>
+        <v>75.778182458924661</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>28.34</v>
+        <v>75.194456963792888</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.02</v>
+        <v>79.651997108435509</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>31.18</v>
+        <v>82.729822446403048</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.53</v>
+        <v>81.005178938059174</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>30.47</v>
+        <v>80.845981075750501</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.49</v>
+        <v>88.858940145286667</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.049999999999997</v>
+        <v>95.651382270456367</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.74</v>
+        <v>94.828859981861612</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>34.49</v>
+        <v>91.512237850431077</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.99</v>
+        <v>90.185588997858872</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>33.49</v>
+        <v>88.858940145286667</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>32.24</v>
+        <v>85.542318013856132</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>35.01</v>
+        <v>92.891952657106174</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36.049999999999997</v>
+        <v>95.651382270456367</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>98.172015090343578</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>37</v>
+        <v>98.172015090343578</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
-        <v>36</v>
+        <v>95.518717385199153</v>
       </c>
     </row>
   </sheetData>
@@ -6468,11 +6463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB008B8-ED0A-4A84-975C-A342158CCFB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB82C02F-BCC0-4FE2-9CCD-B8D1440925A2}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6560,99 +6555,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2039191632574626</v>
+        <v>17.299501037541624</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.667697295091843</v>
+        <v>28.018823766325085</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.5409818169454264</v>
+        <v>15.707522414454971</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.7951077996983749</v>
+        <v>16.317780886638189</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5022409690978797</v>
+        <v>18.015891417930618</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.3475555882917378</v>
+        <v>17.644429739210398</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.048955771867275</v>
+        <v>26.53297705144421</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.258885931532753</v>
+        <v>27.037103615421646</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.78378083334246</v>
+        <v>25.896185602209549</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8944093963531579</v>
+        <v>21.359046526412591</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5683956984370599</v>
+        <v>22.977558126550687</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.048955771867275</v>
+        <v>26.53297705144421</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.618185502056475</v>
+        <v>20.695722100126481</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.4304922592267539</v>
+        <v>15.44219264394053</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2481149863449321</v>
+        <v>17.405632945747399</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8833604405812885</v>
+        <v>21.332513549361142</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.4303532539347312</v>
+        <v>20.244661490251932</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3032207599122447</v>
+        <v>22.340766677316022</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.14881338969015</v>
+        <v>12.364367305973001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.7731488934466633</v>
+        <v>11.4622460862239</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1047565718947041</v>
+        <v>7.4557665514558229</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.1047565718947041</v>
+        <v>7.4557665514558229</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.6793022720318027</v>
+        <v>8.8354813581309219</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.9109133273649466</v>
+        <v>23.800080415145455</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6661,99 +6656,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.452173154894417</v>
+        <v>29.902665136977621</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.523921864765544</v>
+        <v>32.476363910967713</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.2479759810529085</v>
+        <v>22.208101792058802</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4358082291746523</v>
+        <v>22.659162401933351</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.7672769023306714</v>
+        <v>23.455151713476681</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.8667175042774762</v>
+        <v>23.693948506939677</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>19.810777698958024</v>
+        <v>47.573627853239465</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>17.23637100411295</v>
+        <v>41.391444200252963</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.916368302604868</v>
+        <v>26.214581326826881</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.640144408308187</v>
+        <v>25.551256900540775</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.5187449001096684</v>
+        <v>20.456925306663486</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8060177501782171</v>
+        <v>21.146782710001034</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.032451840855485</v>
+        <v>24.091943162711342</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8779054653413665</v>
+        <v>18.91801263767972</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.1762272711817836</v>
+        <v>19.634403018068717</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.6623813251439437</v>
+        <v>20.80185400833226</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.3972063866191284</v>
+        <v>20.165062559097599</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.2979047899643472</v>
+        <v>15.123796919323199</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.3587435493556281</v>
+        <v>12.86849386995044</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.6737082914998576</v>
+        <v>11.223449292760902</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.6296514737044112</v>
+        <v>6.3148485382437212</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>3.093707616122837</v>
+        <v>7.4292335744043783</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>2.3092317563202602</v>
+        <v>5.5453922037518391</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>13.623362466712351</v>
+        <v>32.715160704430708</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6762,99 +6757,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.4967859938579577</v>
+        <v>15.601390506249194</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.9219622831368142</v>
+        <v>23.826613392196901</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.441402209706597</v>
+        <v>20.271194467303374</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.529793855881536</v>
+        <v>20.483458283714928</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.441402209706597</v>
+        <v>20.271194467303374</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.529793855881536</v>
+        <v>20.483458283714928</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.0932906002467675</v>
+        <v>21.836640113338586</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.9441991999725712</v>
+        <v>19.077210499988386</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4248982786948083</v>
+        <v>17.830160578570506</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2481149863449321</v>
+        <v>17.405632945747399</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.3531495688236834</v>
+        <v>15.25646180458042</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.4581841513024338</v>
+        <v>13.107290663413441</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0935686108308138</v>
+        <v>12.231702420715781</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0935686108308138</v>
+        <v>12.231702420715781</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.7509119766109054</v>
+        <v>16.211648978432411</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0935686108308138</v>
+        <v>12.231702420715781</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.0935686108308138</v>
+        <v>12.231702420715781</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.14881338969015</v>
+        <v>12.364367305973001</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.1653173207019396</v>
+        <v>14.805401194705869</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.1432194091582044</v>
+        <v>14.75233524060298</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.6239184878804425</v>
+        <v>13.505285319185102</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>4.78419784921853</v>
+        <v>11.488779063275343</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>5.1046175666026814</v>
+        <v>12.258235397767224</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.679024261447756</v>
+        <v>18.440419050753725</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6863,99 +6858,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.253291951000808</v>
+        <v>29.425071550051626</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>20.981967010775953</v>
+        <v>50.386123420692549</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.733991029723045</v>
+        <v>28.178021628633747</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.733991029723045</v>
+        <v>28.178021628633747</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.733991029723045</v>
+        <v>28.178021628633747</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.733991029723045</v>
+        <v>28.178021628633747</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.5130119142857</v>
+        <v>27.647362087604865</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.4248982786948083</v>
+        <v>17.830160578570506</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.6900732172196236</v>
+        <v>18.466952027805171</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.2425210058129874</v>
+        <v>19.79360088037738</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.579305648916904</v>
+        <v>27.806559949913531</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.386018425555239</v>
+        <v>24.940998428357556</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3474165829997151</v>
+        <v>22.446898585521804</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5352488311214589</v>
+        <v>22.897959195396353</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.3474165829997151</v>
+        <v>22.446898585521804</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>12.032312835563463</v>
+        <v>28.894412009022744</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.905319346833</v>
+        <v>26.188048349775432</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9054583521250237</v>
+        <v>21.385579503464033</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9054583521250237</v>
+        <v>21.385579503464033</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.6678363003838648</v>
+        <v>23.216354920013682</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.8172057112421083</v>
+        <v>16.370846840741077</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2923108094324007</v>
+        <v>17.511764853953178</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.3200027015080806</v>
+        <v>15.176862873426087</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>11.336228621935824</v>
+        <v>27.222834454781758</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6964,99 +6959,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.375108475075395</v>
+        <v>20.111996604994712</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.441263204414573</v>
+        <v>25.073663313614777</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9939890035919854</v>
+        <v>16.795374473564184</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5132899248697465</v>
+        <v>18.04242439498206</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5132899248697465</v>
+        <v>18.04242439498206</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9055973574170464</v>
+        <v>16.583110657152631</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.5850386347408723</v>
+        <v>20.616123168972148</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.441263204414573</v>
+        <v>25.073663313614777</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.187137221661628</v>
+        <v>24.463404841431561</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.5241998753495896</v>
+        <v>22.871426218344904</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.8337096422538979</v>
+        <v>18.811880729473945</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.1044785613106578</v>
+        <v>17.060704244078625</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.463639126542355</v>
+        <v>15.521791575094861</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.1155275170825254</v>
+        <v>17.087237221130071</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.5022409690978797</v>
+        <v>18.015891417930618</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.9938499982999627</v>
+        <v>21.597843319875587</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.4026613618590513</v>
+        <v>22.579563470779021</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>10.131892442802291</v>
+        <v>24.330739956174341</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>9.7120321234713334</v>
+        <v>23.322486828219457</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.3972063866191284</v>
+        <v>20.165062559097599</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>6.9497931805045159</v>
+        <v>16.689242565358409</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.3144087209761359</v>
+        <v>17.564830808056065</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>7.2149681190293311</v>
+        <v>17.32603401459307</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
-        <v>8.8281156617219523</v>
+        <v>21.199848664103925</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -7091,11 +7086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DC1DB-E732-4F79-89B1-5F652B3EE8D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78952B52-95E9-4A46-956D-99C2442CB011}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,99 +7178,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>40.21819900959688</v>
+        <v>96.580036467256917</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>40.21819900959688</v>
+        <v>96.580036467256917</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>40.21819900959688</v>
+        <v>96.580036467256917</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>40.21819900959688</v>
+        <v>96.580036467256917</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>46.405614241842557</v>
+        <v>111.43850361606567</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.986031933095646</v>
+        <v>100.82531279548799</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.986031933095646</v>
+        <v>100.82531279548799</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7284,99 +7279,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.77624077872219</v>
+        <v>95.518717385199153</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.77624077872219</v>
+        <v>95.518717385199153</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7385,99 +7380,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>76.281990648971671</v>
+        <v>183.18367356317083</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.986031933095646</v>
+        <v>100.82531279548799</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.986031933095646</v>
+        <v>100.82531279548799</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>104.96507983273911</v>
+        <v>252.06328198871998</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7486,99 +7481,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>40.881136355908914</v>
+        <v>98.172015090343578</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.433723149794304</v>
+        <v>94.69619509660437</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.77624077872219</v>
+        <v>95.518717385199153</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>42.427990163970335</v>
+        <v>101.88663187754575</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.062679597038596</v>
+        <v>125.0233878664051</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.977970936120947</v>
+        <v>124.81996837567736</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7587,99 +7582,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.554427631532704</v>
+        <v>123.80287092203866</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>52.173169154757268</v>
+        <v>125.28871763691956</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>71.420450109350071</v>
+        <v>171.50916366053536</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>39.77624077872219</v>
+        <v>95.518717385199153</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>41.323094586783604</v>
+        <v>99.233334172401342</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.466035985357763</v>
+        <v>123.59060710562711</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.443938073814031</v>
+        <v>123.53754115152424</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
-        <v>51.587574498848305</v>
+        <v>123.882469853193</v>
       </c>
     </row>
   </sheetData>
@@ -7688,11 +7683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06EB1E-49A0-417F-AD8B-905096775CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC6F8DD-C4F6-4B8F-AEB1-9B49F4112981}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7780,99 +7775,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.53288574115706</v>
+        <v>104.53992958269018</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.086515074732624</v>
+        <v>65.045593241615478</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.354452252200407</v>
+        <v>65.689017935113</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>22.49567395152177</v>
+        <v>54.021141276740408</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>66.293734631203648</v>
+        <v>159.19786230866526</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.053020694186969</v>
+        <v>76.972166426239653</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.064069649958832</v>
+        <v>76.998699403291099</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>32.064069649958832</v>
+        <v>76.998699403291099</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.146867315601824</v>
+        <v>79.598931154332632</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7881,99 +7876,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.727285006854913</v>
+        <v>68.985740333754947</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.727285006854913</v>
+        <v>68.985740333754947</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.649803311159818</v>
+        <v>73.602478340706227</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.131857363988615</v>
+        <v>89.16849154422016</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.9313431754044</v>
+        <v>81.482772524985165</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.086515074732624</v>
+        <v>65.045593241615478</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.354452252200407</v>
+        <v>65.689017935113</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.124769404058092</v>
+        <v>79.545865200229741</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.937076161228369</v>
+        <v>74.292335744043783</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7982,99 +7977,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>47.731488934466633</v>
+        <v>114.622460862239</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>47.731488934466633</v>
+        <v>114.622460862239</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.53288574115706</v>
+        <v>104.53992958269018</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.53288574115706</v>
+        <v>104.53992958269018</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.53288574115706</v>
+        <v>104.53992958269018</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8083,99 +8078,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>17.23637100411295</v>
+        <v>41.391444200252963</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>47.731488934466633</v>
+        <v>114.622460862239</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>41.39675429192939</v>
+        <v>99.410220686077636</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.091344526158444</v>
+        <v>89.071203961698203</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>43.53288574115706</v>
+        <v>104.53992958269018</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.9313431754044</v>
+        <v>81.482772524985165</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.086515074732624</v>
+        <v>65.045593241615478</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>27.500850916177647</v>
+        <v>66.040579881044636</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.727285006854913</v>
+        <v>68.985740333754947</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>39.22747597538612</v>
+        <v>94.200912858310772</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>30.914978249684637</v>
+        <v>74.239269789940892</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>24.329800609651738</v>
+        <v>58.425615467280146</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -8184,99 +8179,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.672596249163671</v>
+        <v>49.643200063252117</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>47.731488934466633</v>
+        <v>114.622460862239</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.091344526158444</v>
+        <v>89.071203961698203</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>37.131857363988615</v>
+        <v>89.16849154422016</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>33.9313431754044</v>
+        <v>81.482772524985165</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.258051899780614</v>
+        <v>55.851916693290065</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.258051899780614</v>
+        <v>55.851916693290065</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>23.258051899780614</v>
+        <v>55.851916693290065</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.672596249163671</v>
+        <v>49.643200063252117</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>20.672596249163671</v>
+        <v>49.643200063252117</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.760431874170518</v>
+        <v>69.065339264909284</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>58.007017802303196</v>
+        <v>139.29812952008209</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.760431874170518</v>
+        <v>69.065339264909284</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>28.760431874170518</v>
+        <v>69.065339264909284</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
-        <v>55.686737090211061</v>
+        <v>133.72620433927881</v>
       </c>
     </row>
   </sheetData>
